--- a/MetroLondres/output/xlsx/Consulta de Trajetos--Complete-.xlsx
+++ b/MetroLondres/output/xlsx/Consulta de Trajetos--Complete-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -41,7 +41,7 @@
     <t>Complete Test Suite</t>
   </si>
   <si>
-    <t>Size: 1 test case(s))</t>
+    <t>Size: 4 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -101,6 +101,9 @@
     <t>Usuário do sistema Usuário informa estação de origem</t>
   </si>
   <si>
+    <t>SYSTEM Imprime novamente, uma messagem solicitando que o usuário informe a estação</t>
+  </si>
+  <si>
     <t>SYSTEM Espera usuário informar estação de destino</t>
   </si>
   <si>
@@ -126,6 +129,15 @@
   </si>
   <si>
     <t>Imprime trajetos. other condition</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -522,13 +534,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D12" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -542,13 +554,13 @@
         <v>4.0</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D13" t="s" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s" s="6">
         <v>2</v>
@@ -562,38 +574,744 @@
         <v>5.0</v>
       </c>
       <c r="B14" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C14" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s" s="7">
+      <c r="E15" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B16" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E14" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="8">
+      <c r="C16" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="E16" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="C15" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s" s="8">
+      <c r="B17" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B51" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B52" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B54" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B55" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -602,7 +1320,16 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B56:F56"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
